--- a/full_anno/all_anno/DRGCODES_anno.xlsx
+++ b/full_anno/all_anno/DRGCODES_anno.xlsx
@@ -3,7 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CTACEA" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>column</t>
   </si>
@@ -49,6 +51,9 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#SubjectPseudoIdentifier</t>
   </si>
   <si>
+    <t>http://www.w3.org/2001/XMLSchema#string</t>
+  </si>
+  <si>
     <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=229753003&amp;edition=MAIN&amp;release=&amp;languages=en</t>
   </si>
   <si>
@@ -61,34 +66,58 @@
     <t>CEA</t>
   </si>
   <si>
-    <t>http://www.w3.org/2001/XMLSchema#string</t>
-  </si>
-  <si>
     <t>APR</t>
   </si>
   <si>
     <t>Other Endocrine Disorders</t>
   </si>
   <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=267490009&amp;edition=MAIN&amp;release=&amp;languages=en</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>ENDOCRINE DISORDERS W MCC</t>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=154648001&amp;edition=MAIN&amp;release=&amp;languages=en</t>
   </si>
   <si>
-    <t>CPA</t>
+    <t>table</t>
   </si>
   <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#AdministrativeCase</t>
+    <t>subject</t>
   </si>
   <si>
-    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasAdministrativeCase</t>
+    <t>predicate</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>DRGCODES</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasIdentifier</t>
   </si>
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier</t>
+  </si>
+  <si>
+    <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasCode</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescription</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSeverityCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row_id </t>
+  </si>
+  <si>
+    <t>drug_type</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#Drug</t>
@@ -102,24 +131,12 @@
   <si>
     <t>https://www.biomedit.ch/rdf/sphn-schema/sphn#hasArticle</t>
   </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasDescription</t>
-  </si>
-  <si>
-    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSeverityCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">row_id </t>
-  </si>
-  <si>
-    <t>drug_type</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -155,6 +172,12 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF467886"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -176,8 +199,31 @@
       <name val="&quot;aptos narrow&quot;"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <u/>
@@ -231,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -257,28 +303,49 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,6 +356,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -496,7 +571,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="17" width="9.38"/>
+    <col customWidth="1" min="1" max="7" width="9.38"/>
+    <col customWidth="1" min="8" max="8" width="93.5"/>
+    <col customWidth="1" min="9" max="9" width="9.38"/>
+    <col customWidth="1" min="10" max="10" width="44.25"/>
+    <col customWidth="1" min="11" max="11" width="9.38"/>
+    <col customWidth="1" min="12" max="12" width="102.63"/>
+    <col customWidth="1" min="13" max="17" width="9.38"/>
     <col customWidth="1" min="18" max="27" width="8.63"/>
   </cols>
   <sheetData>
@@ -551,34 +632,36 @@
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="6"/>
@@ -593,22 +676,22 @@
       <c r="AA2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="10"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
@@ -622,54 +705,52 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
+      <c r="A4" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>63678.0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>42412.0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="11">
         <v>114867.0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="10">
+      <c r="J4" s="11">
         <v>4244.0</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
+      <c r="K4" s="11">
+        <v>4244.0</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
+      <c r="M4" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>4.0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="11">
         <v>4.0</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -683,52 +764,50 @@
       <c r="AA4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11">
         <v>63679.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>42412.0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="11">
         <v>114867.0</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <v>4244.0</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>16</v>
+      <c r="K5" s="11">
+        <v>4244.0</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
+      <c r="M5" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <v>4.0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="11">
         <v>4.0</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -742,48 +821,46 @@
       <c r="AA5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11">
         <v>63680.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>42412.0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>114867.0</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>19</v>
+      <c r="G6" s="3"/>
+      <c r="H6" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="10">
+      <c r="J6" s="11">
         <v>643.0</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
+      <c r="K6" s="11">
+        <v>643.0</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>20</v>
+      <c r="L6" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
-      <c r="P6" s="10"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -826,25 +903,23 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -852,34 +927,25 @@
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -887,34 +953,25 @@
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -922,34 +979,25 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -957,34 +1005,25 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -992,34 +1031,25 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
     </row>
     <row r="13" ht="23.25" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1027,34 +1057,25 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
     </row>
     <row r="14" ht="23.25" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1062,34 +1083,25 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
     </row>
     <row r="15" ht="23.25" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1097,34 +1109,25 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1132,34 +1135,25 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1167,16 +1161,13 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="6"/>
@@ -1204,7 +1195,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
@@ -29709,18 +29700,313 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="SubjectPseudoIdentifier" ref="D2"/>
-    <hyperlink r:id="rId2" ref="H2"/>
-    <hyperlink r:id="rId3" ref="L2"/>
-    <hyperlink r:id="rId4" location="Drug" ref="B12"/>
-    <hyperlink r:id="rId5" location="Drug" ref="A13"/>
-    <hyperlink r:id="rId6" location="hasArticle" ref="C14"/>
-    <hyperlink r:id="rId7" location="hasDescription" ref="C15"/>
-    <hyperlink r:id="rId8" location="hasSeverityCode" ref="C16"/>
+    <hyperlink r:id="rId1" location="DrugPrescription" ref="B2"/>
+    <hyperlink r:id="rId2" location="SubjectPseudoIdentifier" ref="D2"/>
+    <hyperlink r:id="rId3" ref="H2"/>
+    <hyperlink r:id="rId4" ref="L2"/>
+    <hyperlink r:id="rId5" ref="M4"/>
+    <hyperlink r:id="rId6" ref="M5"/>
+    <hyperlink r:id="rId7" ref="L6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.3" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="12.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasCode" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasDescription" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasSeverityCode" ref="D6"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="Drug" ref="C2"/>
+    <hyperlink r:id="rId2" location="Drug" ref="B3"/>
+    <hyperlink r:id="rId3" location="hasCode" ref="D4"/>
+    <hyperlink r:id="rId4" location="hasDescription" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasSeverityCode" ref="D8"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>